--- a/medicine/Enfance/Heather_Has_Two_Mommies/Heather_Has_Two_Mommies.xlsx
+++ b/medicine/Enfance/Heather_Has_Two_Mommies/Heather_Has_Two_Mommies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Heather Has Two Mommies est un livre pour enfants américain coécrit par Lesléa Newman et Diana Souza et illustré par Dana Kingsbury. D'abord publié en 1989, il est décrit comme « le premier livre pour enfants sur le thème du lesbianisme »[1]. L'ouvrage est principalement connu pour être l'un des livres les plus controversés des États-Unis.
+Heather Has Two Mommies est un livre pour enfants américain coécrit par Lesléa Newman et Diana Souza et illustré par Dana Kingsbury. D'abord publié en 1989, il est décrit comme « le premier livre pour enfants sur le thème du lesbianisme ». L'ouvrage est principalement connu pour être l'un des livres les plus controversés des États-Unis.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heather est une enfant élevée par deux femmes lesbiennes : sa mère biologique, Jane, qui lui a donné naissance après insémination artificielle, et Kate, la concubine de sa mère. À la garderie où va Heather, sa situation familiale est vue de manière positive et normale.
 Lesléa Newman affirme : 
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Polémiques
-L'American Library Association et le Sugartime! classent le livre comme le 11e le plus fréquemment mis en cause aux États-Unis dans les années 1990.
+          <t>Polémiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Library Association et le Sugartime! classent le livre comme le 11e le plus fréquemment mis en cause aux États-Unis dans les années 1990.
 </t>
         </is>
       </c>
